--- a/public/subida.xlsx
+++ b/public/subida.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianoaguirre/Desktop/Proyectos/titulados-api-v2/public/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianoaguirre/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8A4093-04A3-C243-BF8F-E2DDAE98F9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0675823-15DC-0344-9515-FBE1FD43396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;-- </t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>valparaiso</t>
+  </si>
+  <si>
+    <t>Sedes validas:</t>
+  </si>
+  <si>
+    <t>valparaiso, santiago, sanFelipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santiago </t>
+  </si>
+  <si>
+    <t>sanFelipe</t>
   </si>
 </sst>
 </file>
@@ -421,7 +439,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -433,10 +451,11 @@
     <col min="5" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="26.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -464,6 +483,9 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -490,19 +512,43 @@
       <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="E4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
@@ -564,10 +610,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1048576 I2:I4" xr:uid="{7C378316-F188-0745-BA17-04FAE716B06B}">
+      <formula1>$L$2:$L$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{0FFEA029-B143-4641-8ECA-44B292CF8006}"/>
+    <hyperlink ref="I2" r:id="rId2" display="correoalumno@estudiantes.uv.cl" xr:uid="{9D8B96AB-E461-304D-A902-C1CB2FD99641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
